--- a/Document/ListPage.xlsx
+++ b/Document/ListPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="13395" windowHeight="3795"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="13395" windowHeight="3735"/>
   </bookViews>
   <sheets>
     <sheet name="ListPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>PageName</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>ka</t>
+  </si>
+  <si>
+    <t>viewAllProj</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,7 +838,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>

--- a/Document/ListPage.xlsx
+++ b/Document/ListPage.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="13395" windowHeight="3735"/>
+    <workbookView xWindow="360" yWindow="420" windowWidth="13395" windowHeight="3615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>PageName</t>
   </si>
@@ -39,9 +39,6 @@
     <t>directorPage</t>
   </si>
   <si>
-    <t>accountDetailPage</t>
-  </si>
-  <si>
     <t>skillListPage</t>
   </si>
   <si>
@@ -172,13 +169,347 @@
   </si>
   <si>
     <t>viewAllProj</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>directorHeader</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dashboard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> none,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Project:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 project newest đang working, nếu không đủ 5 thì show ra số proj tương ứng. Nếu = 0  thì hiện "None". 
+-View All Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Report:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View report Page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> assess period, project đã deadline mà chưa dc closed.</t>
+    </r>
+  </si>
+  <si>
+    <t>managerHeader</t>
+  </si>
+  <si>
+    <t>staffHeader</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dashboard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Project:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 project newest đang working, nếu không đủ 5 thì show ra số proj tương ứng. Nếu = 0  thì hiện "None". 
+-View All Project.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-5 task cần được approve.
+-View all tasks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Report:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View report Page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> assess period, task cần được approve. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dashboard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Project:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 project newest đang working, nếu không đủ 5 thì show ra số proj tương ứng. Nếu = 0  thì hiện "None". 
+-View All Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 task được assign, bị reject.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Report:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View report Page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> assess period, task được assign, task bị reject, project close, task close.</t>
+    </r>
+  </si>
+  <si>
+    <t>staffDashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +518,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +556,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,6 +607,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,54 +955,54 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -633,15 +1010,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -649,39 +1026,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
@@ -689,53 +1064,53 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -752,28 +1127,28 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -781,65 +1156,65 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -850,30 +1225,30 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -900,8 +1275,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -913,13 +1288,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -929,13 +1304,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="15.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="225">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="270">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="270">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
